--- a/medicine/Handicap/Corky,_un_adolescent_pas_comme_les_autres/Corky,_un_adolescent_pas_comme_les_autres.xlsx
+++ b/medicine/Handicap/Corky,_un_adolescent_pas_comme_les_autres/Corky,_un_adolescent_pas_comme_les_autres.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Corky, un adolescent pas comme les autres ou Corky, un enfant pas comme les autres (Life Goes On) est une série télévisée américaine en 84 épisodes de 45 minutes, créée par Michael Braverman et diffusée entre le 12 septembre 1989 et le 7 mars 1993 sur le réseau ABC.
 En France, la série a été diffusée à partir de 1993 sur TMC puis rediffusée à partir du 5 janvier 1997 sur France 3, et au Québec à partir du 2 septembre 1996 à la Télévision de Radio-Canada sous le titre Corky.
@@ -512,7 +524,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette série met en scène la vie de la famille Thatcher et plus particulièrement de leur fils aîné, Charles, dit Corky, trisomique.
 </t>
@@ -543,7 +557,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Chris Burke (VF : Luq Hamet) : Charles « Corky » Thacher
 Bill Smitrovich (VF : Daniel Russo) : Andrew « Drew » Thacher
@@ -553,7 +569,7 @@
 Tracey Needham (VF : Magali Barney) : Paige Thacher (saisons 2 à 4)
 Chad Lowe : Jesse McKenna (saisons 2 à 4)
 Penny Santon : Teresa Giordano
- Source et légende : version française (VF) sur RS Doublage[1]
+ Source et légende : version française (VF) sur RS Doublage
 </t>
         </is>
       </c>
@@ -584,8 +600,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Première saison (1989-1990)
-La Rentrée (Pilot)
+          <t>Première saison (1989-1990)</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>La Rentrée (Pilot)
 Corky président (Corky For President)
 L'Ange gardien (The Babysitter)
 Maman monte sur les planches (Break a Leg Mom)
@@ -606,9 +627,43 @@
 Presse à scandale (Becca and the Underground Newspaper)
 La Dernière Danse (Save the Last Dance for Me)
 Un cœur gros comme ça (With a Mighty Heart)
-Le Bal de printemps (The Spring Fling)
-Deuxième saison (1990-1991)
-Lune de miel en enfer (Honeymoon from Hell)
+Le Bal de printemps (The Spring Fling)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Corky,_un_adolescent_pas_comme_les_autres</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Corky,_un_adolescent_pas_comme_les_autres</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Épisodes</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Deuxième saison (1990-1991)</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Lune de miel en enfer (Honeymoon from Hell)
 Corky et les dauphins (Corky and the Dolphins)
 Le Nouveau Venu (The Visitor)
 Les affaires sont les affaires (Becca and the Band)
@@ -629,9 +684,43 @@
 Le Fantôme de grand-père (Ghost of Grandpa Past)
 Arthur (Arthur)
 Plus léger que l’air (Lighter Than Air)
-Délivrance (Proms and Prams)
-Troisième saison (1991-1992)
-Un grand honneur pour (Toast)
+Délivrance (Proms and Prams)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Corky,_un_adolescent_pas_comme_les_autres</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Corky,_un_adolescent_pas_comme_les_autres</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Épisodes</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Troisième saison (1991-1992)</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Un grand honneur pour (Toast)
 Coup de chapeau (Hello Goodbye)
 Marginalité (Out of The Mainstream)
 Armageddon (Armageddon)
@@ -652,9 +741,43 @@
 Une amourette (Corky’s Romance)
 Les Amis (More Than Friends)
 Les Aveux (Confessions)
-Les Adultes (Consenting Adults)
-Quatrième saison (1992-1993)
-Retour vers le futur (Bec to the Future)
+Les Adultes (Consenting Adults)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Corky,_un_adolescent_pas_comme_les_autres</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Corky,_un_adolescent_pas_comme_les_autres</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Épisodes</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Quatrième saison (1992-1993)</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Retour vers le futur (Bec to the Future)
 Le Tableau (Exposed)
 Mariage à l’essai (Premarital Syndrome)
 Mensonges et vérités (The Whole Truth)
@@ -674,31 +797,33 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>Corky,_un_adolescent_pas_comme_les_autres</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Handicap/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Corky,_un_adolescent_pas_comme_les_autres</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Récompenses</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Emmy Award 1990 : Meilleure actrice invitée dans une série dramatique pour Viveca Lindfors
 Emmy Award 1993 : Meilleur acteur dans un second rôle pour Chad Lowe</t>
